--- a/csv2sql/Sample Assessment Detail.xlsx
+++ b/csv2sql/Sample Assessment Detail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\browdavi\Documents\GitHub\python\csv2sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsbrown/Prog/python/csv2sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218DFC5-4AEE-644F-AD48-9E6DAEDD2AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
-    <t>ClusterName</t>
-  </si>
-  <si>
-    <t>ClusterID</t>
-  </si>
-  <si>
     <t>ProjectName</t>
   </si>
   <si>
@@ -59,9 +54,6 @@
     <t>VendorSiteLongitude</t>
   </si>
   <si>
-    <t>BizDevSelectDate</t>
-  </si>
-  <si>
     <t>InProd</t>
   </si>
   <si>
@@ -110,21 +102,9 @@
     <t>Type_X4</t>
   </si>
   <si>
-    <t>IPSGOSelect</t>
-  </si>
-  <si>
-    <t>BizDevSelect</t>
-  </si>
-  <si>
     <t>VendorSiteVisitDate</t>
   </si>
   <si>
-    <t>IPSGOEngineer</t>
-  </si>
-  <si>
-    <t>BizDevRepresentative</t>
-  </si>
-  <si>
     <t>Ph1ScoreAIA02</t>
   </si>
   <si>
@@ -252,12 +232,33 @@
   </si>
   <si>
     <t>AssessmentGUID</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>ManagerSelectDate</t>
+  </si>
+  <si>
+    <t>ManagerSelect</t>
+  </si>
+  <si>
+    <t>ManagerRepresentative</t>
+  </si>
+  <si>
+    <t>DCName</t>
+  </si>
+  <si>
+    <t>DCID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,396 +569,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
